--- a/data/hotels_by_city/Houston/Houston_shard_379.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_379.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="741">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d657890-Reviews-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Homewood-Suites-Houston-West-Energy-Corridor.h1738448.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2143 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r600601888-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>657890</t>
+  </si>
+  <si>
+    <t>600601888</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Double billed</t>
+  </si>
+  <si>
+    <t>The staff was not friendly and billed my card twice. The room was not cleaned properly.   The chair had crumbs in it,from previous guests.  The toilet handle was broken.  I stood for hours, after surgery, trying to resolve the problem.   The problem was still not resolved. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Denise-HiltonHelp, on behalf of management at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>The staff was not friendly and billed my card twice. The room was not cleaned properly.   The chair had crumbs in it,from previous guests.  The toilet handle was broken.  I stood for hours, after surgery, trying to resolve the problem.   The problem was still not resolved. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r592511457-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592511457</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel, Bad Breakfast</t>
+  </si>
+  <si>
+    <t>The hotel  was great and clean.However, the breakfast was not EGG-CELLENT!Eggs tasted bad and so did the sausage. Not alot of options as other hotels give.Our room was great and big for my family! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Jennifer R, Front Office Manager at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>The hotel  was great and clean.However, the breakfast was not EGG-CELLENT!Eggs tasted bad and so did the sausage. Not alot of options as other hotels give.Our room was great and big for my family! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r581322168-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581322168</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Great choice for extended stay.</t>
+  </si>
+  <si>
+    <t>Staff is accommodating. Breakfast and dinner are nice to have with a good variety of choices.Room was clean and service was great. The lobby and sitting areas were very nice and relaxing to enjoy events on the large TV.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r556953742-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556953742</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>The right price, friendly staff, nice place.</t>
+  </si>
+  <si>
+    <t>The rooms are always clean. I've been to this hotel 3 times since 2013. The staff is always super friendly. The wifi is free, and they offer free ride to nearby locations on their hotel van. Besides the free complimentary breakfast, they also have a social dinner from Monday to Thursday.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>The rooms are always clean. I've been to this hotel 3 times since 2013. The staff is always super friendly. The wifi is free, and they offer free ride to nearby locations on their hotel van. Besides the free complimentary breakfast, they also have a social dinner from Monday to Thursday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r555503246-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555503246</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Great week!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent stay in a hotel that goes above and beyond! Helped make the week of training/work more enjoyable! Breakfast was wonderful to have each morning and the evening social was a perfect option if we decided to stay in for the evening. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r541707102-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541707102</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Always stay here when in Houston on business.  Never been disappointed.  Even though I only stay here 3-4 times a year it always feels like home and the staff usually greet me as such.  There is really nothing I would improve</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r531555476-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531555476</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>One week stay</t>
+  </si>
+  <si>
+    <t>After my experience in Austin, I decided to try this one. The hotel is nice and clean. The lady who makes the breakfast is wonderful and very friendly. The man who makes the happy hour meals is also friendly. The hotel is located in a great part of town and close to many shops. The rooms are updated but laundry could use new machines.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r530957727-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530957727</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Too much noise</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and people above my room seemed to be playing soccer all night. It was too noisy to get a good sleep. You need to be prepare to report these problems and hope to get resolution. This is perhaps not the right place to stay if you are travelling for business reasons.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>cgrimes2, General Manager at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and people above my room seemed to be playing soccer all night. It was too noisy to get a good sleep. You need to be prepare to report these problems and hope to get resolution. This is perhaps not the right place to stay if you are travelling for business reasons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r530602025-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530602025</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for work, all the staff was really amazing here friendly, kind and caring. The rooms are good sized and cleaned well. Unlike some places that say they offer breakfast and/or evening gatherings but if you're not here within the first half hour you miss out. This hotel keeps things stocked and coming out so no need to rush down to get something to eat.  Overall a great experience here. Thank you all for making my stay really great southern hospitality shows here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r497569752-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497569752</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice facility....undependable technology and poor management </t>
+  </si>
+  <si>
+    <t>Full disclosure: I'm a business traveler who is on the road at least 120 nights a year.  
+And since I travel a great deal the hotels I stay at are more than a place to lay my head, they are my office.  
+Typically I can rely on Hilton for great service, clean facilities and solid technology
+Sadly this was not the case with this stay regarding the check in process and Internet. 
+Checked in around 1:50 pm in anticipation of a webinar meeting at 2:30. 
+Got settled and unpacked but when I tried to get on line I got an error message.  Called the front desk and was assured they'd fix the problem. 
+At 2:10 no resolution so I called again.  Very pleasant front desk agent promised to have this fixed.   
+2:17. I'm now panicked.  I go to the front desk and discovered that the agent and the manager can't get me checked it.  
+I'm told their "system" won't allow them to check me in on my points    They tell me because I reserved the room using points and money the system is not allowing them to check me in. 
+My response is that I don't recall using points and money. But to get the problem solved I suggest they charge me for the room and credit my points back. 
+It's now around 2:22 and the clock is ticking for this webinar with my boss and two others.  
+I get...Full disclosure: I'm a business traveler who is on the road at least 120 nights a year.  And since I travel a great deal the hotels I stay at are more than a place to lay my head, they are my office.  Typically I can rely on Hilton for great service, clean facilities and solid technologySadly this was not the case with this stay regarding the check in process and Internet. Checked in around 1:50 pm in anticipation of a webinar meeting at 2:30. Got settled and unpacked but when I tried to get on line I got an error message.  Called the front desk and was assured they'd fix the problem. At 2:10 no resolution so I called again.  Very pleasant front desk agent promised to have this fixed.   2:17. I'm now panicked.  I go to the front desk and discovered that the agent and the manager can't get me checked it.  I'm told their "system" won't allow them to check me in on my points    They tell me because I reserved the room using points and money the system is not allowing them to check me in. My response is that I don't recall using points and money. But to get the problem solved I suggest they charge me for the room and credit my points back. It's now around 2:22 and the clock is ticking for this webinar with my boss and two others.  I get online finally.  Afterwards I pull up my confirmation and it shows that I was correct, points only (21,000) and no money. I return to the front desk and advise Charles Grimes, the manager that I was correct.  But now it's too late.  I'm upset over the combined ineptitude of the front desk clerk and the manager.  Between the two of them they cost me $133 and frustration for almost an hour. When it becomes clear to Mr Grimes that I was correct and upon advising him that I want a credit for my points he replies "No problem". Well, I replied, it is and has been a problem since I checked in so don't dismiss this with a casual remark like "no problem".  Never heard the words "I'm truly sorry that we caused you problems" or " sorry for the delay getting you checked in" or "sorry we didn't know what we were doing".  Just an off hand " no problem". Like that would placate me.  I will never stay here again and caution fellow Hilton members to be wary of using your points here.    This was painful.  PS. Room was fine, clean and spacious. Facilities are good.  Management lacking. You're warned. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Full disclosure: I'm a business traveler who is on the road at least 120 nights a year.  
+And since I travel a great deal the hotels I stay at are more than a place to lay my head, they are my office.  
+Typically I can rely on Hilton for great service, clean facilities and solid technology
+Sadly this was not the case with this stay regarding the check in process and Internet. 
+Checked in around 1:50 pm in anticipation of a webinar meeting at 2:30. 
+Got settled and unpacked but when I tried to get on line I got an error message.  Called the front desk and was assured they'd fix the problem. 
+At 2:10 no resolution so I called again.  Very pleasant front desk agent promised to have this fixed.   
+2:17. I'm now panicked.  I go to the front desk and discovered that the agent and the manager can't get me checked it.  
+I'm told their "system" won't allow them to check me in on my points    They tell me because I reserved the room using points and money the system is not allowing them to check me in. 
+My response is that I don't recall using points and money. But to get the problem solved I suggest they charge me for the room and credit my points back. 
+It's now around 2:22 and the clock is ticking for this webinar with my boss and two others.  
+I get...Full disclosure: I'm a business traveler who is on the road at least 120 nights a year.  And since I travel a great deal the hotels I stay at are more than a place to lay my head, they are my office.  Typically I can rely on Hilton for great service, clean facilities and solid technologySadly this was not the case with this stay regarding the check in process and Internet. Checked in around 1:50 pm in anticipation of a webinar meeting at 2:30. Got settled and unpacked but when I tried to get on line I got an error message.  Called the front desk and was assured they'd fix the problem. At 2:10 no resolution so I called again.  Very pleasant front desk agent promised to have this fixed.   2:17. I'm now panicked.  I go to the front desk and discovered that the agent and the manager can't get me checked it.  I'm told their "system" won't allow them to check me in on my points    They tell me because I reserved the room using points and money the system is not allowing them to check me in. My response is that I don't recall using points and money. But to get the problem solved I suggest they charge me for the room and credit my points back. It's now around 2:22 and the clock is ticking for this webinar with my boss and two others.  I get online finally.  Afterwards I pull up my confirmation and it shows that I was correct, points only (21,000) and no money. I return to the front desk and advise Charles Grimes, the manager that I was correct.  But now it's too late.  I'm upset over the combined ineptitude of the front desk clerk and the manager.  Between the two of them they cost me $133 and frustration for almost an hour. When it becomes clear to Mr Grimes that I was correct and upon advising him that I want a credit for my points he replies "No problem". Well, I replied, it is and has been a problem since I checked in so don't dismiss this with a casual remark like "no problem".  Never heard the words "I'm truly sorry that we caused you problems" or " sorry for the delay getting you checked in" or "sorry we didn't know what we were doing".  Just an off hand " no problem". Like that would placate me.  I will never stay here again and caution fellow Hilton members to be wary of using your points here.    This was painful.  PS. Room was fine, clean and spacious. Facilities are good.  Management lacking. You're warned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r494630453-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494630453</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was excellent.  Check in was a easy process.  The lobby is in excellent condition,  The furniture and the TV was really good . The suite was clean  and meant condition. I would come back to stay and  recommend to others. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r494412992-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494412992</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Great hotel 5 stars if they took care of pool and hot tub :(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was clean, breakfast and evening meals were great. Had an issue with tv one night, no on staff maintenance person at the time, came back to room with new tv in it. The only really bad was pool was rough shape, and hot tub was blocked off very poorly due to being broken. Looked very poor. I will stay again great location and service. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r485961482-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485961482</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>older hotel</t>
+  </si>
+  <si>
+    <t>The hotel was alright, not a newer hotel so decorations and just the over all hotel feels a little older.. the location is kinda shady, now that's on me because I didn't know any better, like said the stay was ok. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>cgrimes2, General Manager at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was alright, not a newer hotel so decorations and just the over all hotel feels a little older.. the location is kinda shady, now that's on me because I didn't know any better, like said the stay was ok. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r484652408-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484652408</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We stayed for one night at this hotel.The room was spacious with kitchenette and  very clean. The bed was comfortable. Staff very courteous and always smiling. The complimentary breakfast was surprisingly tasty. Great value with excellent service. I will stay there again! I totally recommended it!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r482050476-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482050476</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Home wood Suites Energy Corridor Houston</t>
+  </si>
+  <si>
+    <t>One night stay at this hotel. Hotel was clean, with a very courteous staff. Breakfast was surprisingly tasty and the room was clean and well appointed.   The guests were delightful. This was a last minute reservation MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>One night stay at this hotel. Hotel was clean, with a very courteous staff. Breakfast was surprisingly tasty and the room was clean and well appointed.   The guests were delightful. This was a last minute reservation More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r467975485-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467975485</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Front desk staff was amazing. They weren't very helpful and always smiling. I enjoyed my stay there. Housekeeping was really good and the rooms were fresh and clean. I will definitely recommend it to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff was amazing. They weren't very helpful and always smiling. I enjoyed my stay there. Housekeeping was really good and the rooms were fresh and clean. I will definitely recommend it to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r463384264-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463384264</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>It was alright. I dont see why I am a member of the honors program. It still has yet to provide me with ANYTHING. Also all the times I have stayed I never got credit for. They need a card or something to get credit for your stay. I paid to stay here. Why should I have to go online or do anything else to collect my points? as soon as I check in they should know I am a honors member and I should get my points. I shouldnt have to do ANYTHING but pay my bill to get my points. Too difficult and just not worth the BS. I am a busy man I dont have time on business trips to do all this BS to collect my points!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>It was alright. I dont see why I am a member of the honors program. It still has yet to provide me with ANYTHING. Also all the times I have stayed I never got credit for. They need a card or something to get credit for your stay. I paid to stay here. Why should I have to go online or do anything else to collect my points? as soon as I check in they should know I am a honors member and I should get my points. I shouldnt have to do ANYTHING but pay my bill to get my points. Too difficult and just not worth the BS. I am a busy man I dont have time on business trips to do all this BS to collect my points!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r459904794-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459904794</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Homewood Suites - An Excellent Business Stop</t>
+  </si>
+  <si>
+    <t>We stayed at this Homewood Suites because our company had business to conduct during Super Bowl weekend. We had to coordinate shipping of more than 20 large boxes and secure three rooms for our stay. The staff was extremely responsive and professional. They confirmed receipt of all packages, accommodated the room required for those shipments and were awaiting us upon arrival to show us where everything was. The rooms were spacious and featured kitchenettes. The complimentary breakfast was tasty - loved the Texas-shaped waffles! All in all a great value with excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this Homewood Suites because our company had business to conduct during Super Bowl weekend. We had to coordinate shipping of more than 20 large boxes and secure three rooms for our stay. The staff was extremely responsive and professional. They confirmed receipt of all packages, accommodated the room required for those shipments and were awaiting us upon arrival to show us where everything was. The rooms were spacious and featured kitchenettes. The complimentary breakfast was tasty - loved the Texas-shaped waffles! All in all a great value with excellent service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r455292915-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455292915</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Ok stay but property showing some wear</t>
+  </si>
+  <si>
+    <t>First time at this Homewood and probably would not return.  Property was just in ok shape, so value was at best average.  Breakfast was pretty typical.  Nothing to really complain about but nothing stood out that would discourage me from looking for an alternative.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>First time at this Homewood and probably would not return.  Property was just in ok shape, so value was at best average.  Breakfast was pretty typical.  Nothing to really complain about but nothing stood out that would discourage me from looking for an alternative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r452197830-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452197830</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for an extended stay</t>
+  </si>
+  <si>
+    <t>My husband was working on a project in Houston for a few weeks so I joined him. We got the 1 bedroom.  The room was great. We had all of the basics of home needed to make the stay pleasant. The staff were great - helpful and pleasant. However what really stood out to me was the quality of the food served at both breakfast and the nightly "snacks". Breakfast was varied and well stocked with fresh items. The evenings were full dinner all served with soup and salad. We've stayed at a number of extended stats but have not encountered such good and fresh food. Well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>My husband was working on a project in Houston for a few weeks so I joined him. We got the 1 bedroom.  The room was great. We had all of the basics of home needed to make the stay pleasant. The staff were great - helpful and pleasant. However what really stood out to me was the quality of the food served at both breakfast and the nightly "snacks". Breakfast was varied and well stocked with fresh items. The evenings were full dinner all served with soup and salad. We've stayed at a number of extended stats but have not encountered such good and fresh food. Well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r447698586-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447698586</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Great value for a family. Conveniently located. Clean and comfortable.</t>
+  </si>
+  <si>
+    <t>This property is conveniently located right off I-10 but without the noise. The suites were welcoming and comfortable and clean. The staff is friendly and helpful. The complimentary breakfast and evening social added much value to our stay. We will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>This property is conveniently located right off I-10 but without the noise. The suites were welcoming and comfortable and clean. The staff is friendly and helpful. The complimentary breakfast and evening social added much value to our stay. We will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r442030568-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442030568</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great stay.  Very clean, good location, great service.  Enjoyed the complimentary breakfast each morning and the light dinner in the evening.  There was a mix up with our handicap accessible room but they made it good right away.  Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Great stay.  Very clean, good location, great service.  Enjoyed the complimentary breakfast each morning and the light dinner in the evening.  There was a mix up with our handicap accessible room but they made it good right away.  Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r441634630-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441634630</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Convenient location-easy access to I10 highway.</t>
+  </si>
+  <si>
+    <t>Best hotel accommodations for the money. Clean rooms, friendly and knowledgeable staff who made our visit very pleasant. Also location gave us easy access to the I10 corridor, shopping malls and entertainment venues.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer R, Guest Service Supervisor at Homewood Suites by Hilton Houston West-Energy Corridor, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Best hotel accommodations for the money. Clean rooms, friendly and knowledgeable staff who made our visit very pleasant. Also location gave us easy access to the I10 corridor, shopping malls and entertainment venues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r441438164-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441438164</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Always stay here on business trips to Houston, and its become a home away from home. Rooms are comfortable, spacious and well laid out, the staff (especially Angie at the front desk) are friendly and helpful, and the food is simple but well prepared.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Always stay here on business trips to Houston, and its become a home away from home. Rooms are comfortable, spacious and well laid out, the staff (especially Angie at the front desk) are friendly and helpful, and the food is simple but well prepared.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r431402718-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431402718</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Another Great Homewood Suites!</t>
+  </si>
+  <si>
+    <t>Everything was exceptional as expected! Great Manager's reception and breakfast and the outdoor pool and hot tub was lovely. Staff- very friendly and helpful. Thank you Homewood for making us feel at home!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r423329936-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423329936</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was nice. They made it a little easier to be away from family. Very friendly staff.   Rooms were very spacious, pillows were awesome and beds were very comfortable. I would return to this property. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r422234065-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422234065</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service and clean facility. Complimentary breakfast had variety as well as the evening social with complimentary beer and wine! The room was spacious and included a kitchenette.  Cleaning stopped by every day and left fresh towels daily. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r403475377-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403475377</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>VERY PLEASANT STAY</t>
+  </si>
+  <si>
+    <t>Friendly staff welcomed us at our arrival.  Nice, clean hotel was a pleasant surprise from our previous hotel.  We asked for extra towels &amp; got them quickly.  Perfect for family!  Would stay here again if we're in the area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r398746742-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398746742</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>Really surprised by this hotel's breakfast and evening social. For busy business travelers, this hotel is perfect ... Clean, friendly, comfortable and great food! I'll be staying here again without hesitation in the near future!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r397671840-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397671840</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Stayed in the king suite which was clean and spacious.  There was a small kitchenette which had all the basic necessaries. Breakfast was provided and was just ok - the dining area was a bit crowded however the attendants were very friendly and helpful. Would recommend the hotel if you plan on staying a few days in Houston.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r391088060-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391088060</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Homewood suite Katy TX</t>
+  </si>
+  <si>
+    <t>The rooms at the Homewood suites in Katie Texas was very clean and nice we stayed in double bed rooms on top of each other so access to each other's floor was quick. The service for the rooms were very good and the only problem I encountered was the lamp in my room was out was burned out</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r390728930-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390728930</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Great 4th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had emergency business over the 4th. Great stay and quiet. Good location. Enjoyed the breakfast and security officers at night when I was outside exercising. The desk staff was very helpful and did laundry on property. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r385435528-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385435528</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>This hotel is awesome, the rooms were very clean and comfortable. The staff were friendly and accommodating. The pool area was great and very relaxing. This hotel has all the amenities as if you are at home...great stay!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r375646175-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375646175</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Sweet Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here during spring break. Clean and comfortable suite with plenty of room for four of us. Nice to have living/kitchen room separate from bed/bathroom. Complimentary breakfast and evening reception were bonuses. Wine and longneck beer options served along with entree and salad. Hotel is very conveniently located off of I-10. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r374021648-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374021648</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great stay for our family of 5!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have a 7, 5 and 1 year old so having space, and comfort is huge. The kitchen is a great value. The separate rooms, with separate tv's, and separate ac units is perfect!!! Equally important to us is the friendliness of the staff and they did not disappoint. The only thing they could improve on are the eggs and hash browns. But hey, there is a kitchen in the room too! I highly recommend this hotel. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r371447653-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371447653</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t>Most of all, the staff is Excellent! Always ready to help, day or late night, with a big and sincere smile, that makes you feel at home. The call you by name! Facilities and accommodations are clean and quite. Definitely, you're at Home!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r359033417-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359033417</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Great place for large families!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found this jewel after extensively looking for a hotel with 2 bedrooms. When we walked in we were pleasantly surprised at how nice and clean the suite was.... The staff was very friendly and free Continental breakfast is always a plus... We will definitely be visiting this location again... </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r353245351-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353245351</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Stayed here with family for 5 nights after landing from 21 hours flight journey.....it was really a comfortable stay with friendly stay....breakfast was very nice with changing menu....didn't get bored at all.....evening snacks was the highlight and would recommend it strongly. .....We also played basketball to get some sun and make up for no being able to swim due to cold breeze ....The business center is also pretty decent....overall neat n clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r351473337-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351473337</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Family Getaway</t>
+  </si>
+  <si>
+    <t>This hotel was great for the occasion.  The customer service, location, price and amenities were all great. If I am ever in this location again This will be my first location of choice for family lodging or individual lodging.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r334730298-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334730298</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Great Experience all around</t>
+  </si>
+  <si>
+    <t>I stay in hotels approximately 75% of the year.  This one is at the top of the list as far as accommodations, friendly staff, good service and good bed!  Highly recommend this property whether it be for business or pleasure.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r332586915-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332586915</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Homewood Suites Houston West-Energy Corridor</t>
+  </si>
+  <si>
+    <t>Typical Homewood Suites in terms of layout.  Public areas and my room both very clean and well-appointed.  Everything works.  Staff is helpful and friendly.  Convenient shuttle service within the local area.  Breakfast and evening reception are both exceptional in food selection and quality.  Good location near both SH 6 and I-10.  This was my fourth stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r330378944-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330378944</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Very good place to stay on the roadtrip</t>
+  </si>
+  <si>
+    <t>Another good nights sleep in a Homewood Suites, this time with the added benefit of a really good light meal, beer and wine as part of the manager's reception (5-7pm).  Breakfast was well up to standard of this brand so this makes dinner, bed and breakfast great value.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r317004467-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317004467</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Always Accommodating</t>
+  </si>
+  <si>
+    <t>From check in to check out we've never experienced anything other than outstanding professionalism at this hotel. We stay there at least once a year as a family for a tennis tournament in the area. Each stay has been an excellent experience. It's usually pretty quiet around there on the weekends as I'm sure this is a frequently used hotel for business travel during the week because of it's proximity to the "Energy Corridor" area of Houston.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r316481372-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316481372</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>Helpful staff, lovely rooms, excellent atmosphere, refreshing hot tub, good food and overall great experience.  We were there for our son's wedding, and the staff was great to offer any kind of help we needed, since we were from another city. I would definitely recommend this hotel to anyone who wants a nice place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r314637191-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314637191</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Everything was simple and easy to access, the staff was amazing. Hats off Angie is the best and she was attentative to all my needs she even let me know in advance what day she ould be off and introduced me to the staff member that would be helping me while she was off.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r310851477-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310851477</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>We stayed at Homewood Suites with a wedding group. The hotel was conveniently close to Ashton Gardens West venue. We slept great in the comfy bed and the breakfast each morning was fresh and delicious! While we were there we enjoyed the swimming pool and my teenage sons spent all of their extra time on the basketball court! Great place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r305589910-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305589910</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>As a long term stay patron I highly recommend Homewood Suites by Hilton Houston West/Energy Corridor.  The staff is excellent, friendly and helpful and rooms are consistently clean and well maintained.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r303855802-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303855802</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Horribly Rude Staff</t>
+  </si>
+  <si>
+    <t>My travel plans changed late in the day with one night remaining on my 3-day reservation. I asked the general manager if he would not charge me for the 3rd night if I checked out at 4:30pm.  I'm a loyal Hilton Honors Diamond member (highest level in their program). His answer: "Absolutely not. The rules are the rules, no exceptions. You will be charged for the 3rd night. Forget it. End of conversation." He could have easily made a loyal customer very happy, but instead passed on the opportunity. So much for loyalty. Avoid this property if you value good service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r297773052-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297773052</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Nice stay on a business travel</t>
+  </si>
+  <si>
+    <t>Good clean hotel with friendly staff. Stayed there on a business trip - large rooms, well equipped with all you need. Nice thing is, that the breakfast is included - have not tried the dinner. Parking is easy as well and for free.  For sure, I will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r295890671-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295890671</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Our stay was perfect. The free meals, the quality of the suites, and the staff was fantastic. Very helpful and willing to spend time with you. this was the most at home I have ever felt while staying in a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r293863100-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293863100</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>Great Hotel!  The staff is very professional and courteous.  We visited Houston to see the Astros play against Texas Rangers.  The receptionist provided us recommendations for restaurants and parking near Minute Maid Park. Two thumbs up!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r278908598-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278908598</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>The room was equipped with space and amenities for getting work done.    On a business trip with not a lot of time to do much of anything, this hotel enabled me to get good meals (breakfast &amp; dinner) for free.   It was also a chance to meet others staying there.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r278635809-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278635809</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Business Trip with wife along</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel, pleasant staff!  Rooms were clean and spacious.  Breakfast and Evening food offerings were done well.  Here for four nights and was comfortable.  Not too much in the surrounding area but within a short drive, shopping and dining opportunities available.  Nice that there is an oriental and pizza place that delivers!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r275162391-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275162391</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>The expected with the unexpected.</t>
+  </si>
+  <si>
+    <t>Homewood Suites is a standard everywhere you go and that is one of the things I like about this chain.  All the expected excellent accommodations and standards of the Homewood Suites chain.  There is always something that sets one of these locations above and beyond the others and in this location the one thing was the evening front desk attendant.  This was the most gracious and attentive employee in the hotel.  I was there 4 nights and really always looked forward to seeing her in the evenings.  Kudos to this employee who unfortunately I never did get her name.  Overall a great stay at a great location at a great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Homewood Suites is a standard everywhere you go and that is one of the things I like about this chain.  All the expected excellent accommodations and standards of the Homewood Suites chain.  There is always something that sets one of these locations above and beyond the others and in this location the one thing was the evening front desk attendant.  This was the most gracious and attentive employee in the hotel.  I was there 4 nights and really always looked forward to seeing her in the evenings.  Kudos to this employee who unfortunately I never did get her name.  Overall a great stay at a great location at a great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r266533428-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266533428</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>Homewood Suites Energy Corridor is really home-away from home. We enjoyed every bit of our stay. For the price, we got more value than what we paid. Anytime, any day, I would definitely like to stay at this home-away from home (Homewood suites-Energy Corridor)</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r265984651-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265984651</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>My Stay At Homewood Suites</t>
+  </si>
+  <si>
+    <t>Very nice, clean hotel. My stay was perfect. Everything was convenient. This was the least stressful part of my business trip. I enjoyed the meet and greet in the evening and the  breakfast in the morning. The early check in via my phone was nice because I was checked in and knew where to find my room when I arrived.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r263335255-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263335255</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Felt like being at home - but pricey</t>
+  </si>
+  <si>
+    <t>This was a very comfortable hotel. The room was a nice suite - very relaxing and efficient for work I had to do online, then rest. I had trouble regulating the temperature, otherwise nice place. But it is quite pricey.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r260228396-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260228396</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Clean/Quiet near I10</t>
+  </si>
+  <si>
+    <t>We enjoyed a 2-night stay during spring break at this hotel.  Although there were a limited amount of rooms available online when we booked our reservation, upon arrival we found the hotel was not that packed.  There was plenty of seating available during the breakfast buffet and at the evening reception.  The room itself felt very comfortable, like home away from home.  We plan on staying at a Homewood again.PROSNice kitchen with stove, sink and full fridgeDescent continental breakfast BUT the evening reception (dinner and drinks) was great!Cribs available upon requestCONSLow shower pressureSlippery shower tubLow watt blow-dryer, you may need to bring your ownSmall fitness center</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r257597485-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257597485</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Clean, quite  property  in the heart of the Energy Corridor</t>
+  </si>
+  <si>
+    <t>We had a one night stay at the property while visiting family in the area and could not have been more pleased with our experience.  Check-in was fast and friendly.  Our room was spacious, clean, and well decorated. Internet was fast and easy to use.  The flat panel TV was new, large, and  we had free premium channels.  I liked how quiet the property and grounds were  while still located close to so many major roads and businesses.  The desk staff was able to recommend the perfect spot for dinner and it was within walking distance as were many nice restaurants.   The breakfast at the hotel was excellent and the dining area was attractive and well designed.  I appreciate that they use real quality stoneware and silverware when serving breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We had a one night stay at the property while visiting family in the area and could not have been more pleased with our experience.  Check-in was fast and friendly.  Our room was spacious, clean, and well decorated. Internet was fast and easy to use.  The flat panel TV was new, large, and  we had free premium channels.  I liked how quiet the property and grounds were  while still located close to so many major roads and businesses.  The desk staff was able to recommend the perfect spot for dinner and it was within walking distance as were many nice restaurants.   The breakfast at the hotel was excellent and the dining area was attractive and well designed.  I appreciate that they use real quality stoneware and silverware when serving breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r254718917-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254718917</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Decent choice in Energy Corridor</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights on business, hotel is clean and well located in Energy Corridor.  I did have a issue with housekeeping as they skipped my room for no reason, DND sign was not out?  Another issue is with the TV feed both in the room and in the lobby, the signal lags every 30 seconds or so creating an annoying buffering situation.   Water pressure in the shower was very weak as well.  Just minor details that detract from a perfect stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r250445237-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250445237</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Just like home!</t>
+  </si>
+  <si>
+    <t>We really enjoyed staying here. The staff was sonderfully helpful and friendly!  The room was beautiful and clean, and well maintained. The shower could have been a little stronger, but that is the only thing I can think of that would have made this stay better.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r249236657-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249236657</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>We had 7 people in our group and the suite was great and we felt right at home. The room was clean and we would stay here again. The breakfast offered many choices and was very good. The hotel has a nice floor plan, many exits and the room was user friendly. Free Wi-Fi was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r246860039-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246860039</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay in Energy Corridor</t>
+  </si>
+  <si>
+    <t>Homewood is a great spot to stay in this area.  It's very clean, the staff is excellent.  The only critique is the in-house gym, but they will give you passes to a gym nearby and you can easily run outside in a quiet, scenic route along the top of the berm along the edge of the watershed behind the hotel.  Angie at the front desk is one of the most helpful hotel staff members I've ever encountered anywhere.  Highly recommend this place.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r244740482-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244740482</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here on a recent visit to Houston to visit relatives. As I was traveling with my wife and mother, I got a 2 bedroom suite. The hotel was modern, bright, clean and in good condition. The room was clean, comfortable, quiet, roomy and in good condition. The bed was very comfortable. The room had a nice size, well equipped kitchen. Not sure if all rooms are so equipped or just the 2 bedroom suite. The staff was very friendly. Wifi was included. The only reason I didn't give this hotel 5 stars is because of the included breakfast. Although I don't expect much from complimentary breakfasts, the breakfast here was a step down in quality. Not bad just not as good as I've had, even at other Hilton properties. Overall, I was very pleased with my stay and would stay here again. Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I stayed here on a recent visit to Houston to visit relatives. As I was traveling with my wife and mother, I got a 2 bedroom suite. The hotel was modern, bright, clean and in good condition. The room was clean, comfortable, quiet, roomy and in good condition. The bed was very comfortable. The room had a nice size, well equipped kitchen. Not sure if all rooms are so equipped or just the 2 bedroom suite. The staff was very friendly. Wifi was included. The only reason I didn't give this hotel 5 stars is because of the included breakfast. Although I don't expect much from complimentary breakfasts, the breakfast here was a step down in quality. Not bad just not as good as I've had, even at other Hilton properties. Overall, I was very pleased with my stay and would stay here again. Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r244493712-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244493712</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Good Food, Great Service</t>
+  </si>
+  <si>
+    <t>I came here for two weeks for training.  They offer complimentary buffet breakfast with REAL food.  Also, dinner is served daily with complimentary libation.  The staff is very helpful and Angie is amazing!  She genuinely cares and it is evident in how she treats everyone that comes in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r243205510-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243205510</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this hotel a couple times in the last few months. Everything was great, however the service must be recognized. Angie was fantastic. Right from the beginning she greeted each of us with such warmth. She remembered names, went above and beyond. Would come again for that alone. I am sure many others have felt the same! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r239661779-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239661779</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Hotel Review</t>
+  </si>
+  <si>
+    <t>Great hotel, staff are very nice and easy to work with!!!This hotel typically shows full on line, but staff has always been able to get me room(s) when need.Hotel located to jobsite I need to get to</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r239359163-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239359163</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>An excellent stay!</t>
+  </si>
+  <si>
+    <t>I was visiting from Hong Kong and really enjoyed my stay at this hotel. The rooms are spacious, there is a great hot breakfast and the staff were very polite and helpful at all times. The hotel is easy to get to from the freeway and there were restaurants nearby. Keep up the good work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r238294324-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238294324</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>This hotel stinks!</t>
+  </si>
+  <si>
+    <t>We couldn't get away from the smell in this hotel.  The room had ridiculously wrinkled bed covers when we arrived. I wouldn't waste my time with this property.  It does not uphold the Homewood Suites standards that my family has been accustomed to throughout years of travel.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r223759803-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223759803</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Homeward Suites Katy, Tx</t>
+  </si>
+  <si>
+    <t>I have enjoyed the Hilton Properties since my first stay. This hotel is a new property that was close to all ammenities. My stay was problem free. I enjoy the breakfast and the Managers Reception in the evening. I would recommended this hotel to anyone traveling to Katy.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r222867655-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222867655</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>A pleasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for two nights. It's a bit dated and on the verge of being worn, but it was very clean, rooms quiet, ac worked well and it even had a ceiling fan in the bedroom. Slept great. Used the couch sleeper for my younger two kids, easy to set up and extra sheets/blankets/pillows in bedroom closet. Maid cleaned up and straightened after out first night. Breakfast was smaller than I've seen with less choices, but food was good. Has an outdoor basketball court and two grills if you want to cook yourself. Will stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r222309717-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222309717</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Always helpful, friendly staff.  Rooms are always quiet and clean.  I can count on this hotel when I'm visiting Houston.  The breakfast is good and convenient, and they do have some free dinners, but I haven't tried those.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r217082104-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217082104</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Best hotel staff period!!</t>
+  </si>
+  <si>
+    <t>I travel every week on business and have been doing so for several years now... This hotel is truly a home away from home. The staff here are absolutely exceptional. Toni magically whips up the most scrumptious meals with all the southern hospitality and more. Simply the best!!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r216705126-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216705126</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Not up to Homewood Suites' usual standard</t>
+  </si>
+  <si>
+    <t>Hotel was okay.  Definitely not horrible, but not up to Homewood Suites' usual.  Rooms seemed a bit worn.  Property seemed located to serve contract business guests.  Front desk was friendly, and the breakfast was decent (as is usually the case at Homewood), but the overall feel of the hotel was that things were not as nice as they could have been.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r214429037-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214429037</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Katy Homewood Inn and Suites</t>
+  </si>
+  <si>
+    <t>I care very much for Homewood Suites. This weekend of July 4th I brought my family and was very disappointed in our stay. The food was not cooked properly. The roooms were very disappointing because lack of supplies and towels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r210927912-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210927912</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>good stay in a quality hotel</t>
+  </si>
+  <si>
+    <t>This Homewood Suite is on par with most of the other Homewood's Ive stayed at. Yes, there were outside lights but I closed my curtains. I was traveling with my Harley in the back of my truck and I did like the fact that there was a security guard walking the parking lot all night. (I got in an 1120PM and left at 410AM and he was walking both times...)</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r209979119-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209979119</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>LIKE SLEEPING IN A BRIGHT ROOM?</t>
+  </si>
+  <si>
+    <t>No blackout curtains and a bright spotlight outside of my window.  Does anything else really matter when you can't sleep in your hotel room?  Well, if it does... the room didn't smell all that great and the bedsheets kind of had that "grimey" feeling to them.  Other than that --- the best part was the two free meals (continental breakfast and dinner).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r206656899-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206656899</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Not up to Homewood standards</t>
+  </si>
+  <si>
+    <t>Love Homewood Suites, but this one was below average for a Homewood.  I agree with another reviewer about the noisy fans, unimaginative food, and gym.  I’m not a health nut but the amount of grease in all of the hot breakfast food put me off a bit.  If this was a Comfort Inn (at Comfort Inn prices) I wouldn’t be complaining.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r204540443-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204540443</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Home experience at Homewood Suites</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 days during April 2014. I must say this is a place in Houston whenever you have some business to attend in the Energy Corridor. It is fantastic piece of property with such serenity and rich decor.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r204233388-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204233388</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Great Service, Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was everything I expected.  Great service, evening reception with real food and drinks, and morning breakfast...  Comfortable room, and all the amenities one could want...  Quite convenient for the energy corridor...  I'll be back...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r202508855-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202508855</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Quiet, Friendly, roomy, and a great price</t>
+  </si>
+  <si>
+    <t>Lots to do in the Houston and having a great hotel to stay at only makes the experience better.  The room was huge and new. The hotel staff were friendly and efficient.  Highly recommend to anyone staying in West Houston.  Close to I10 but not so close you could hear it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r198768975-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198768975</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>A very pleasant experience</t>
+  </si>
+  <si>
+    <t>Our visit began with very friendly staff, a speedy check in and a clean, quiet room.  We were there with some friends and our 12 year old boys. They spent the entire evening outside on the basketball sport court, which allowed us to relax and visit in the Lobby. The beds were very comfortable and the hallway was quiet. We enjoyed the complimentary breakfast which had plenty items, hot and cold to choose from before checking out.  After leaving, I realized I forgot an item in the room and the staff was happy to get it for me and hold it at the front desk.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r198761781-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198761781</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel for Business Travel</t>
+  </si>
+  <si>
+    <t>Excellent location, provided that your office is near Park Row. Great accommodations for the price, which includes dinner from Monday-Thursday. You can pick up some steaks of your own and grill just outside the restaurant space on the patio.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r197916963-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197916963</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Great hotel - great value</t>
+  </si>
+  <si>
+    <t>We're so glad we chose this hotel.  Upon arrival it was obvious that this property was very well cared for.  The lobby was clean and welcoming and the desk staff was extremely friendly.  Our room was very clean and spacious...perfect for our family stay.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r197120386-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197120386</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Good Location off of I-10 and Hwy 6</t>
+  </si>
+  <si>
+    <t>Friendly staff with a welcome to Houston smile.  We were placed toward the back of the building with easy access to the parking lot and no noise from Katy Parkway (I-10).  As with all Homewood Suites, we enjoy the added space of a suite.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r196082790-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196082790</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>A Home Away from Home for Long Stays</t>
+  </si>
+  <si>
+    <t>Comfortable, affordable, and well furnished apartments, including kitchen facilities for long stay business travellers to Houston's Energy Corridor.  Homewood Suites offers helpful staff with round-the-clock service, reliable internet, and easy access to the main roads. Unpretentious but excellent value for money.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r195522186-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195522186</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>average hotel</t>
+  </si>
+  <si>
+    <t>This hotel is at most avarage. The Gym lack equipments,  the rooms are badly planned and have bad illumination. I only opted for this hotel due to the location, but next time I will look for better options arround the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r192426881-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192426881</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Will stay again</t>
+  </si>
+  <si>
+    <t>As a family of 5, this suite was perfect. Everything in the suite was clean and comfortable. The staff was friendly and helpful. Location was very convenient an the price was right. Everything we are looking for in a place to stay.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r191937453-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191937453</t>
+  </si>
+  <si>
+    <t>01/24/2014</t>
+  </si>
+  <si>
+    <t>10 pleasant days</t>
+  </si>
+  <si>
+    <t>The rooms are kept very clean, the lighting is well-placed, the beds are firm and comfortable, (numerous pillows) the staff makes sure you have everything you need, the business office equipment works well, exterior noise was never a problem, and it is not that expensive.  It is a fairly new facility and is well maintained.  It is extremely easy to get to and freeway entrances are not far away.  The kitchen in the room was very handy, including a full-sized refrigerator.  
+Breakfast is served every day.  It is standard hotel fare--prefab food--presented in a pleasant atmosphere.  Fresh fruit and coffee are available 24 hours a day (although I did not check at 3 am).  Dinner is offered Monday-Thursday for business folks.  Many travelers choose Homewood Suites because of that--no hassle to get something to eat later in the day.  Quality: higher end cafeteria food with fresh greens offered every evening.  Oh, and wine and beer come with your meal.  
+There are 5 or 6 good restaurants very close by--pizza, Indian, sushi, Mexican and Italian.  A gas station is in close proximity.  The exercise room is small--treadmills.  The pool is available, but the second polar vortex hit during our stay and an outdoor swim was not on my agenda.  Parking surrounds the building.
+Four stars for two reasons: the food is not that tasty and I kept having to warm up everything, including the coffee in their handy microwave--maybe because it...The rooms are kept very clean, the lighting is well-placed, the beds are firm and comfortable, (numerous pillows) the staff makes sure you have everything you need, the business office equipment works well, exterior noise was never a problem, and it is not that expensive.  It is a fairly new facility and is well maintained.  It is extremely easy to get to and freeway entrances are not far away.  The kitchen in the room was very handy, including a full-sized refrigerator.  Breakfast is served every day.  It is standard hotel fare--prefab food--presented in a pleasant atmosphere.  Fresh fruit and coffee are available 24 hours a day (although I did not check at 3 am).  Dinner is offered Monday-Thursday for business folks.  Many travelers choose Homewood Suites because of that--no hassle to get something to eat later in the day.  Quality: higher end cafeteria food with fresh greens offered every evening.  Oh, and wine and beer come with your meal.  There are 5 or 6 good restaurants very close by--pizza, Indian, sushi, Mexican and Italian.  A gas station is in close proximity.  The exercise room is small--treadmills.  The pool is available, but the second polar vortex hit during our stay and an outdoor swim was not on my agenda.  Parking surrounds the building.Four stars for two reasons: the food is not that tasty and I kept having to warm up everything, including the coffee in their handy microwave--maybe because it was January.  Also, the wi-fi was a little slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are kept very clean, the lighting is well-placed, the beds are firm and comfortable, (numerous pillows) the staff makes sure you have everything you need, the business office equipment works well, exterior noise was never a problem, and it is not that expensive.  It is a fairly new facility and is well maintained.  It is extremely easy to get to and freeway entrances are not far away.  The kitchen in the room was very handy, including a full-sized refrigerator.  
+Breakfast is served every day.  It is standard hotel fare--prefab food--presented in a pleasant atmosphere.  Fresh fruit and coffee are available 24 hours a day (although I did not check at 3 am).  Dinner is offered Monday-Thursday for business folks.  Many travelers choose Homewood Suites because of that--no hassle to get something to eat later in the day.  Quality: higher end cafeteria food with fresh greens offered every evening.  Oh, and wine and beer come with your meal.  
+There are 5 or 6 good restaurants very close by--pizza, Indian, sushi, Mexican and Italian.  A gas station is in close proximity.  The exercise room is small--treadmills.  The pool is available, but the second polar vortex hit during our stay and an outdoor swim was not on my agenda.  Parking surrounds the building.
+Four stars for two reasons: the food is not that tasty and I kept having to warm up everything, including the coffee in their handy microwave--maybe because it...The rooms are kept very clean, the lighting is well-placed, the beds are firm and comfortable, (numerous pillows) the staff makes sure you have everything you need, the business office equipment works well, exterior noise was never a problem, and it is not that expensive.  It is a fairly new facility and is well maintained.  It is extremely easy to get to and freeway entrances are not far away.  The kitchen in the room was very handy, including a full-sized refrigerator.  Breakfast is served every day.  It is standard hotel fare--prefab food--presented in a pleasant atmosphere.  Fresh fruit and coffee are available 24 hours a day (although I did not check at 3 am).  Dinner is offered Monday-Thursday for business folks.  Many travelers choose Homewood Suites because of that--no hassle to get something to eat later in the day.  Quality: higher end cafeteria food with fresh greens offered every evening.  Oh, and wine and beer come with your meal.  There are 5 or 6 good restaurants very close by--pizza, Indian, sushi, Mexican and Italian.  A gas station is in close proximity.  The exercise room is small--treadmills.  The pool is available, but the second polar vortex hit during our stay and an outdoor swim was not on my agenda.  Parking surrounds the building.Four stars for two reasons: the food is not that tasty and I kept having to warm up everything, including the coffee in their handy microwave--maybe because it was January.  Also, the wi-fi was a little slow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r183334089-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183334089</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Short Stay</t>
+  </si>
+  <si>
+    <t>Excellent staff and hotel facility.  The rooms and public areas were very clean.  Most of my interaction with hotel staff was during check-in.  The hostess made me and my family feel welcome and was very helpful with directions and how to connect to and use the hotel WIFI. I look forward to another stay in this hotel.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r180870104-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180870104</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Absolutely fantastic!</t>
+  </si>
+  <si>
+    <t>Another great Hilton property, clean rooms and super friendly staff!  Being a frequent traveler it is nice to have dinner included, easy to just grab a plate and eat in your room instead of having to go out.  Will be back for the next month at least and will recommend to anyone visiting the Energy Corridor!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r180309240-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180309240</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Sorry that I seem to be a contrarian...but this Homewood Property isn't top notch</t>
+  </si>
+  <si>
+    <t>I expected more.  I suppose that I am spoiled by another Homewood property in Frisco, Texas that raises the bar for Homewood Suites.  This property, although the staff are friendly, and the room was clean, had some issues:
+-Noisy HVAC.  Fans, even on low, are loud.  I appreciate that Houston humidity does a number on HVAC systems, but this is not that time of year...
+-Food.  Glazier or Sysco specials?  Rice-a-Roni?  At least we got a fresh salad, but packaged dressings?  Looks as if everything came straight off of a truck a-la "heat and eat".  The chicken at the evening meal had a non-descript gooey sweet sauce coating - not good for sugar avoiders - and since when is serving whole kernel corn and rice at the same time good nutrition?  Corn is NOT a vegetable, it is a starch.  OK, we had salad.  FAT everywhere - no balance here much.
+-Cheap wine, beer - average -- Just not quality food service.
+-Breakfast - fat-fat-fat - eggs with cheese and meat all combined; french toast, potato patties - all drenched in grease.  Bacon.  Only Instant Flavored Quaker Oatmeal packs - no plain.  Little boxes of cereal.  No plain yoghurt.  Barely whole-wheat bread, mostly pastries or all white bread products.  Only "Coffee-Mate", no real half-n-half; At least there was fresh milk...  Apples, oranges, and bananas - save the day!  Goodness, when at other HWS's you get real oatmeal, real cooked breakfast...I expected more.  I suppose that I am spoiled by another Homewood property in Frisco, Texas that raises the bar for Homewood Suites.  This property, although the staff are friendly, and the room was clean, had some issues:-Noisy HVAC.  Fans, even on low, are loud.  I appreciate that Houston humidity does a number on HVAC systems, but this is not that time of year...-Food.  Glazier or Sysco specials?  Rice-a-Roni?  At least we got a fresh salad, but packaged dressings?  Looks as if everything came straight off of a truck a-la "heat and eat".  The chicken at the evening meal had a non-descript gooey sweet sauce coating - not good for sugar avoiders - and since when is serving whole kernel corn and rice at the same time good nutrition?  Corn is NOT a vegetable, it is a starch.  OK, we had salad.  FAT everywhere - no balance here much.-Cheap wine, beer - average -- Just not quality food service.-Breakfast - fat-fat-fat - eggs with cheese and meat all combined; french toast, potato patties - all drenched in grease.  Bacon.  Only Instant Flavored Quaker Oatmeal packs - no plain.  Little boxes of cereal.  No plain yoghurt.  Barely whole-wheat bread, mostly pastries or all white bread products.  Only "Coffee-Mate", no real half-n-half; At least there was fresh milk...  Apples, oranges, and bananas - save the day!  Goodness, when at other HWS's you get real oatmeal, real cooked breakfast assortment with choices for people who do not want to have a heart-attack on a plate...By the way, the "Robust" coffee was as if a coffee bean just "walked thru it".  Thank goodness I BYO "Via" coffee and instant plain oatmeal paks, plus raw almonds and walnuts...This place is too expensive to have this run-of-the-mill average food quality!  Come on, management, you can raise the bar!  This is a big city that you are in - availability of good food is plentiful - are you just maximizing your bottom line and sacrificing quality here?Sorry to hammer you all so hard, but this is not a top notch Homewood Suites - your sister properties have raised the bar too high -- you need to step up!It is convenient to the oil companies on I-10.  This is its saving grace...MoreShow less</t>
+  </si>
+  <si>
+    <t>I expected more.  I suppose that I am spoiled by another Homewood property in Frisco, Texas that raises the bar for Homewood Suites.  This property, although the staff are friendly, and the room was clean, had some issues:
+-Noisy HVAC.  Fans, even on low, are loud.  I appreciate that Houston humidity does a number on HVAC systems, but this is not that time of year...
+-Food.  Glazier or Sysco specials?  Rice-a-Roni?  At least we got a fresh salad, but packaged dressings?  Looks as if everything came straight off of a truck a-la "heat and eat".  The chicken at the evening meal had a non-descript gooey sweet sauce coating - not good for sugar avoiders - and since when is serving whole kernel corn and rice at the same time good nutrition?  Corn is NOT a vegetable, it is a starch.  OK, we had salad.  FAT everywhere - no balance here much.
+-Cheap wine, beer - average -- Just not quality food service.
+-Breakfast - fat-fat-fat - eggs with cheese and meat all combined; french toast, potato patties - all drenched in grease.  Bacon.  Only Instant Flavored Quaker Oatmeal packs - no plain.  Little boxes of cereal.  No plain yoghurt.  Barely whole-wheat bread, mostly pastries or all white bread products.  Only "Coffee-Mate", no real half-n-half; At least there was fresh milk...  Apples, oranges, and bananas - save the day!  Goodness, when at other HWS's you get real oatmeal, real cooked breakfast...I expected more.  I suppose that I am spoiled by another Homewood property in Frisco, Texas that raises the bar for Homewood Suites.  This property, although the staff are friendly, and the room was clean, had some issues:-Noisy HVAC.  Fans, even on low, are loud.  I appreciate that Houston humidity does a number on HVAC systems, but this is not that time of year...-Food.  Glazier or Sysco specials?  Rice-a-Roni?  At least we got a fresh salad, but packaged dressings?  Looks as if everything came straight off of a truck a-la "heat and eat".  The chicken at the evening meal had a non-descript gooey sweet sauce coating - not good for sugar avoiders - and since when is serving whole kernel corn and rice at the same time good nutrition?  Corn is NOT a vegetable, it is a starch.  OK, we had salad.  FAT everywhere - no balance here much.-Cheap wine, beer - average -- Just not quality food service.-Breakfast - fat-fat-fat - eggs with cheese and meat all combined; french toast, potato patties - all drenched in grease.  Bacon.  Only Instant Flavored Quaker Oatmeal packs - no plain.  Little boxes of cereal.  No plain yoghurt.  Barely whole-wheat bread, mostly pastries or all white bread products.  Only "Coffee-Mate", no real half-n-half; At least there was fresh milk...  Apples, oranges, and bananas - save the day!  Goodness, when at other HWS's you get real oatmeal, real cooked breakfast assortment with choices for people who do not want to have a heart-attack on a plate...By the way, the "Robust" coffee was as if a coffee bean just "walked thru it".  Thank goodness I BYO "Via" coffee and instant plain oatmeal paks, plus raw almonds and walnuts...This place is too expensive to have this run-of-the-mill average food quality!  Come on, management, you can raise the bar!  This is a big city that you are in - availability of good food is plentiful - are you just maximizing your bottom line and sacrificing quality here?Sorry to hammer you all so hard, but this is not a top notch Homewood Suites - your sister properties have raised the bar too high -- you need to step up!It is convenient to the oil companies on I-10.  This is its saving grace...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r178011032-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178011032</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Turned out ok</t>
+  </si>
+  <si>
+    <t>Stayed here for business and used hilton website to book. Website changed my days to the current day so my stay was booked for 2 weeks before I was suppose to be there. Front desk girl had no idea when asked to see manager she went to back and then came out to tell me there was nothing he could do. When I forced him to come out and talk he was less then helpful and as I got more upset and pushed harder he finally said he could give 10% discount. I finally decided to call my hilton honors people and they took care of it with him and together made it right. The hotel itself was nice and the complementary evening dinner was amazing. Besides the grumpy unhelpful manager and price you pay to stay in this area, this place is great!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for business and used hilton website to book. Website changed my days to the current day so my stay was booked for 2 weeks before I was suppose to be there. Front desk girl had no idea when asked to see manager she went to back and then came out to tell me there was nothing he could do. When I forced him to come out and talk he was less then helpful and as I got more upset and pushed harder he finally said he could give 10% discount. I finally decided to call my hilton honors people and they took care of it with him and together made it right. The hotel itself was nice and the complementary evening dinner was amazing. Besides the grumpy unhelpful manager and price you pay to stay in this area, this place is great!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r176794973-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176794973</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Texas-sized hospitality and comfort</t>
+  </si>
+  <si>
+    <t>Extremely nice suite hotel enjoyed during a two-night stay for a family reunion.  Front desk staff were a joy to visit with, very sociable, and helpful as far as where to eat locally.  Easy and plentiful parking for the facility.  My room was a studio, with a king bed, big bathroom, small kitchen and eating area and sitting area.  Very comfortable bed and nice linens, and all the bathroom amenities were provided and more than adequate.  This property offers a hot meal in the evening, and breakfast in the morning, and beverages.  It was extremely quiet in my room location, and furnishings and supplies in the room were well maintained and very clean.  A short walk from the hotel, there was a quick and convenient Subway sandwich shop, and some other little shops.  Houston downtown proper was about a 15 minute drive via an interstate.  I'd gladly enjoy another stay at this friendly and comfortable hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Extremely nice suite hotel enjoyed during a two-night stay for a family reunion.  Front desk staff were a joy to visit with, very sociable, and helpful as far as where to eat locally.  Easy and plentiful parking for the facility.  My room was a studio, with a king bed, big bathroom, small kitchen and eating area and sitting area.  Very comfortable bed and nice linens, and all the bathroom amenities were provided and more than adequate.  This property offers a hot meal in the evening, and breakfast in the morning, and beverages.  It was extremely quiet in my room location, and furnishings and supplies in the room were well maintained and very clean.  A short walk from the hotel, there was a quick and convenient Subway sandwich shop, and some other little shops.  Houston downtown proper was about a 15 minute drive via an interstate.  I'd gladly enjoy another stay at this friendly and comfortable hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r175973448-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175973448</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable but not Quiet</t>
+  </si>
+  <si>
+    <t>This appears to be a relatively new property.  My son and I were in Houston for a football game.The hotel is well maintained, but has the same deficiency as most of the hotels I have ever stayed in--if there is a room above you and there are people in that room, you can hear every step they make.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r175366788-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175366788</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Wonderful stay again.</t>
+  </si>
+  <si>
+    <t>There is simply nothing negative I can say about this place.  Hotel is clean, everything works, and the staff is simply wonderful.  No security issues at all, the full kitchen rocks.  Simply excellent.  I will continue to use this facility every time I am there.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r170246428-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170246428</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This hotel was awesome!!! The rooms are large and roomy and the beds are very comfortable.  The bathroom was nice and large with plenty of room to move around.  The kitchen was nice as well.  Little table to eat at.  The TV swiveled which was nice.  It allowed me to watch TV while working on my laptop from anywhere in the room.  Really nice hotel!!!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r169559497-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169559497</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Near the Terry Hershy bike trail extension</t>
+  </si>
+  <si>
+    <t>This hotel is very convenient to both I-10 (for your motorized vehicle) and the bicycle trails in western Houston.  Breakfast was nice.  We missed the food/beverages in the evening because we went cycling from 5 until 8:30.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r167878812-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167878812</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Great accomodations you can count on!</t>
+  </si>
+  <si>
+    <t>I have stayed at Homewood Suites in varying areas of the country. I have always had everything I needed and the suites are clean and very comfortable. The staff is always accomodating and it just makes my work nights 'the best' to be surrounded in a good atmosphere. Thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r164557973-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164557973</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel in the Energy Corridor</t>
+  </si>
+  <si>
+    <t>Homewood Suites in the Energy Corridor provided a convenient, clean, comfortable stay while in the Houston area.  I am a frequent traveler and rate my stay at this hotel among the best in recent memory.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r170166954-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170166954</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Homewood Suites located at 14450 Park Row Road in Houston, Texas is my family's home away from home. The amenities and service are excellent. If you are planning a trip in the Houston area, my family and I highly recommend Homewood Suites at the above location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r163238283-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163238283</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Perfect example of home away from home</t>
+  </si>
+  <si>
+    <t>Great PM Guest service agent Angie. The front desk staff makes you really feel like you are staying at home. I love the function of the room i had. Easy access to major highways. I am a fan of Homewood all because of this hotel. If you have a family this brand of Hilton's are for you..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r160672731-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160672731</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>great property; helpful staff</t>
+  </si>
+  <si>
+    <t>I stayed at this property recently and the staff was wonderful.  They made my stay very great and made me feel welcomed.   I was in town for interviews to move to HOuston and they helped with great information about the city and everything else I asked for.   GREAT STAY!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r160117776-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160117776</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>We have spent a great deal of time at this hotel (business and pleasure).  Overall the experience has been good.  The location is good; far enough from the freeway to not be bothered by noise or overwhelming traffic but close enough to get to the places that you want to visit without losing too much time.  The rooms are spacious and clean, the bed is very comfortable.  The hotel staff is consistently courteous and helpful (especially the cleaning staff).  Free/light breakfast and dinner are served daily.  I personally enjoyed the Bath &amp; Body work toiletries. If you plan to be in the Houston (energy corridor) area for an extended visit, consider this Homewood Suites for your lodging options.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We have spent a great deal of time at this hotel (business and pleasure).  Overall the experience has been good.  The location is good; far enough from the freeway to not be bothered by noise or overwhelming traffic but close enough to get to the places that you want to visit without losing too much time.  The rooms are spacious and clean, the bed is very comfortable.  The hotel staff is consistently courteous and helpful (especially the cleaning staff).  Free/light breakfast and dinner are served daily.  I personally enjoyed the Bath &amp; Body work toiletries. If you plan to be in the Houston (energy corridor) area for an extended visit, consider this Homewood Suites for your lodging options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r160026345-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160026345</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Bisiness Trip</t>
+  </si>
+  <si>
+    <t>Very convenient and friendly stay. Rooms large and spacious- weekday free beer and light food. Really does cater for short or long stay visitors.  Bed very comfortable. Free Internet- nothing to complain about!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r155135985-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155135985</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Broken Spa, hella slow elevator, interesting staff, but great stay otherwise</t>
+  </si>
+  <si>
+    <t>The amount of time spent waiting for the spa to be fixed was over 7 days. The elevator was SLOW, which isn't a big deal but the time adds up after awhile. The front desk staff is friendly enough but they won't hold your reservation if you show up late the day of check-in, so make sure to call ahead of time. I needed an additional key made for my room at one point and got one without having to give any kind of credentials to prove it was my room. If I spent much time around the staff I'd assume they just knew who I was, but I didn't so take your valuables with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>The amount of time spent waiting for the spa to be fixed was over 7 days. The elevator was SLOW, which isn't a big deal but the time adds up after awhile. The front desk staff is friendly enough but they won't hold your reservation if you show up late the day of check-in, so make sure to call ahead of time. I needed an additional key made for my room at one point and got one without having to give any kind of credentials to prove it was my room. If I spent much time around the staff I'd assume they just knew who I was, but I didn't so take your valuables with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r149059086-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149059086</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Great Stay! Would recommend &amp; come again.</t>
+  </si>
+  <si>
+    <t>For a suite that is just off the energy corridor - this is really a nice place. I happened onto this place by chance while searching the internet to attend a seminar at another hotel which was $200+/night, only to realize that I bump into a couple others from my company who's staying there on longer term! It's located in a very quiet locale, away from the bustling I-10. Getting on and off I-10 is a breeze. I always prefer a suite even for short stays so I can keep some groceries and make my own sandwiches, reheat food, etc. The room was sizable enough for one or two people moving around and very clean. There is a nice couch and desk and desk chair. Good-sized flat screen tv - and I was able to plug in the HDMI input from mu Asus tablet and watch my own movies (with my own HDMI cable). Complimentary wired and wireless internet was a huge plus - I had my pc, tablet and phone all on the internet at the same time. This was really convenient. I generally always stay on the ground floor for easy access to the car parking lot - which was never crowded.
+Complimentary breakfast was generally good all mornings. So no complaints there. Front desk and restaurant people were friendly and helpful. Once you have a car (which I think is a must in Houston), nowhere is too...For a suite that is just off the energy corridor - this is really a nice place. I happened onto this place by chance while searching the internet to attend a seminar at another hotel which was $200+/night, only to realize that I bump into a couple others from my company who's staying there on longer term! It's located in a very quiet locale, away from the bustling I-10. Getting on and off I-10 is a breeze. I always prefer a suite even for short stays so I can keep some groceries and make my own sandwiches, reheat food, etc. The room was sizable enough for one or two people moving around and very clean. There is a nice couch and desk and desk chair. Good-sized flat screen tv - and I was able to plug in the HDMI input from mu Asus tablet and watch my own movies (with my own HDMI cable). Complimentary wired and wireless internet was a huge plus - I had my pc, tablet and phone all on the internet at the same time. This was really convenient. I generally always stay on the ground floor for easy access to the car parking lot - which was never crowded.Complimentary breakfast was generally good all mornings. So no complaints there. Front desk and restaurant people were friendly and helpful. Once you have a car (which I think is a must in Houston), nowhere is too far in Houston - and there is Brother's Pizza and an Indian restaurant in a nearby plaza on Highway 6 which are highly recommended.    At $139/night - this is a great value considering the other main-chain options in the area. I would highly recommend it and likely go back if I'm needed to be in the general energy corridor area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>For a suite that is just off the energy corridor - this is really a nice place. I happened onto this place by chance while searching the internet to attend a seminar at another hotel which was $200+/night, only to realize that I bump into a couple others from my company who's staying there on longer term! It's located in a very quiet locale, away from the bustling I-10. Getting on and off I-10 is a breeze. I always prefer a suite even for short stays so I can keep some groceries and make my own sandwiches, reheat food, etc. The room was sizable enough for one or two people moving around and very clean. There is a nice couch and desk and desk chair. Good-sized flat screen tv - and I was able to plug in the HDMI input from mu Asus tablet and watch my own movies (with my own HDMI cable). Complimentary wired and wireless internet was a huge plus - I had my pc, tablet and phone all on the internet at the same time. This was really convenient. I generally always stay on the ground floor for easy access to the car parking lot - which was never crowded.
+Complimentary breakfast was generally good all mornings. So no complaints there. Front desk and restaurant people were friendly and helpful. Once you have a car (which I think is a must in Houston), nowhere is too...For a suite that is just off the energy corridor - this is really a nice place. I happened onto this place by chance while searching the internet to attend a seminar at another hotel which was $200+/night, only to realize that I bump into a couple others from my company who's staying there on longer term! It's located in a very quiet locale, away from the bustling I-10. Getting on and off I-10 is a breeze. I always prefer a suite even for short stays so I can keep some groceries and make my own sandwiches, reheat food, etc. The room was sizable enough for one or two people moving around and very clean. There is a nice couch and desk and desk chair. Good-sized flat screen tv - and I was able to plug in the HDMI input from mu Asus tablet and watch my own movies (with my own HDMI cable). Complimentary wired and wireless internet was a huge plus - I had my pc, tablet and phone all on the internet at the same time. This was really convenient. I generally always stay on the ground floor for easy access to the car parking lot - which was never crowded.Complimentary breakfast was generally good all mornings. So no complaints there. Front desk and restaurant people were friendly and helpful. Once you have a car (which I think is a must in Houston), nowhere is too far in Houston - and there is Brother's Pizza and an Indian restaurant in a nearby plaza on Highway 6 which are highly recommended.    At $139/night - this is a great value considering the other main-chain options in the area. I would highly recommend it and likely go back if I'm needed to be in the general energy corridor area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r147736800-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147736800</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>If you need to be on 10 west ...</t>
+  </si>
+  <si>
+    <t>This is an "OK" property. The rooms are large and quiet. It feels "sprawling" because the hallways are long and winding. The food was not particularly good. The staff were fine. The biggest issue I had was location. It is right at 6 and 10. You can easily get on the HOV lane and to the shuttle bus to downtown. You can easily get onto 10 or 6. The only thing that isn't easy is getting into the hotel itself. The entrance is small and located off the side road. There is no entrance off 6. Late afternoon when the HOV exit and buses are running it can be hard to find the hotel entrance behind the traffic.It's not the hotel's fault (although a bigger sign wouldn't hurt). Just look for the hotel and realize the entrance is off the side.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>This is an "OK" property. The rooms are large and quiet. It feels "sprawling" because the hallways are long and winding. The food was not particularly good. The staff were fine. The biggest issue I had was location. It is right at 6 and 10. You can easily get on the HOV lane and to the shuttle bus to downtown. You can easily get onto 10 or 6. The only thing that isn't easy is getting into the hotel itself. The entrance is small and located off the side road. There is no entrance off 6. Late afternoon when the HOV exit and buses are running it can be hard to find the hotel entrance behind the traffic.It's not the hotel's fault (although a bigger sign wouldn't hurt). Just look for the hotel and realize the entrance is off the side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r129558512-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129558512</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Top Drawer</t>
+  </si>
+  <si>
+    <t>We spent 5 days at this property in a 2 bedroom suite.  The entire experience was top drawer - from good quality breakfast to room maintenance to the lite supper.  The dining area was large enough for comfortable conversations without being over heard.Check-in and service staff were pleasant and most helpful with every request.  WiFi was fast - I conducted a great deal of business while there.The only complaint was strange behavior of the heating cooling system - which if not cooling was heating!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r128937820-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128937820</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Second Review &amp; Update</t>
+  </si>
+  <si>
+    <t>This is my second review of this property.  I stayed here many times and our stay was for seven days this time.  The Hotel is still an excellent choice.   Below are some points both positive and negative that are different and may need attention:
+Food:  The complimentary dinner contained better quality food and also tasted better. The breakfast was the same.
+Rooms:  Clean with excellent sleep quality
+Service:  Front desk and management are very friendly, service oriented and responsive.  Housekeeping on this visit was less efficient.  Don't keep your "Do Not Disturb" sign out past noon.  We left the room at noon and took the sign off at that time. The explanation I received when returning to an unserviced room at 4:30 pm that if they pass by twice and see the sign they do not return, regardless of the time.  We found this odd, but called to make sure we get service on days we had the sign out in the morning past 10 am.
+Pool:  The pool and hot tub were not as clean as I would like.  Dead insects and debris on the bottom of the pool and floating on the hot tub on all three days we used the area.  Also, guests use the area for smoking and leave cigarette butts on the ground and full ash trays on the tables.  One person was smoking cigars while we were swimming and we had to leave. No...This is my second review of this property.  I stayed here many times and our stay was for seven days this time.  The Hotel is still an excellent choice.   Below are some points both positive and negative that are different and may need attention:Food:  The complimentary dinner contained better quality food and also tasted better. The breakfast was the same.Rooms:  Clean with excellent sleep qualityService:  Front desk and management are very friendly, service oriented and responsive.  Housekeeping on this visit was less efficient.  Don't keep your "Do Not Disturb" sign out past noon.  We left the room at noon and took the sign off at that time. The explanation I received when returning to an unserviced room at 4:30 pm that if they pass by twice and see the sign they do not return, regardless of the time.  We found this odd, but called to make sure we get service on days we had the sign out in the morning past 10 am.Pool:  The pool and hot tub were not as clean as I would like.  Dead insects and debris on the bottom of the pool and floating on the hot tub on all three days we used the area.  Also, guests use the area for smoking and leave cigarette butts on the ground and full ash trays on the tables.  One person was smoking cigars while we were swimming and we had to leave. No pool towels.  You have to go through the Lobby and request them at the front desk.  We swam three times.  It was not bad enough to avoid the pool, just not as well cared for as in the past.Turnover:  We noticed several new people.  In the past we always had the same folks and we knew them and they knew us by name. That may be the issue with house keeping.We still overall like the Hotel and will continue to use it for our business needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>This is my second review of this property.  I stayed here many times and our stay was for seven days this time.  The Hotel is still an excellent choice.   Below are some points both positive and negative that are different and may need attention:
+Food:  The complimentary dinner contained better quality food and also tasted better. The breakfast was the same.
+Rooms:  Clean with excellent sleep quality
+Service:  Front desk and management are very friendly, service oriented and responsive.  Housekeeping on this visit was less efficient.  Don't keep your "Do Not Disturb" sign out past noon.  We left the room at noon and took the sign off at that time. The explanation I received when returning to an unserviced room at 4:30 pm that if they pass by twice and see the sign they do not return, regardless of the time.  We found this odd, but called to make sure we get service on days we had the sign out in the morning past 10 am.
+Pool:  The pool and hot tub were not as clean as I would like.  Dead insects and debris on the bottom of the pool and floating on the hot tub on all three days we used the area.  Also, guests use the area for smoking and leave cigarette butts on the ground and full ash trays on the tables.  One person was smoking cigars while we were swimming and we had to leave. No...This is my second review of this property.  I stayed here many times and our stay was for seven days this time.  The Hotel is still an excellent choice.   Below are some points both positive and negative that are different and may need attention:Food:  The complimentary dinner contained better quality food and also tasted better. The breakfast was the same.Rooms:  Clean with excellent sleep qualityService:  Front desk and management are very friendly, service oriented and responsive.  Housekeeping on this visit was less efficient.  Don't keep your "Do Not Disturb" sign out past noon.  We left the room at noon and took the sign off at that time. The explanation I received when returning to an unserviced room at 4:30 pm that if they pass by twice and see the sign they do not return, regardless of the time.  We found this odd, but called to make sure we get service on days we had the sign out in the morning past 10 am.Pool:  The pool and hot tub were not as clean as I would like.  Dead insects and debris on the bottom of the pool and floating on the hot tub on all three days we used the area.  Also, guests use the area for smoking and leave cigarette butts on the ground and full ash trays on the tables.  One person was smoking cigars while we were swimming and we had to leave. No pool towels.  You have to go through the Lobby and request them at the front desk.  We swam three times.  It was not bad enough to avoid the pool, just not as well cared for as in the past.Turnover:  We noticed several new people.  In the past we always had the same folks and we knew them and they knew us by name. That may be the issue with house keeping.We still overall like the Hotel and will continue to use it for our business needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r120816060-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120816060</t>
+  </si>
+  <si>
+    <t>11/20/2011</t>
+  </si>
+  <si>
+    <t>Good Location - Convenient to all Energy Companies</t>
+  </si>
+  <si>
+    <t>Our stay combined business and family.  We also had two disabled family members traveling with us.  The Hotel was very good, satisfying all of our needs.  We had a two bedroom suite on the second floor, near the back elevator.  The rooms were clean and very functional.  The free breakfast was good.  We did not take advantage of the free evening meal.  This is served from 5:30 pm to 7:00 pm and we just did could not make it back in time.  It would be good to extend it an hour or so. For the price of a regular Hotel room (about $200) you get a two bedroom suite.  The only services you do not get are room service and help with the luggage.  The quality of the bedding, the furnishings and of course the amount of room you get is as good and better than in a full service Hotel.  We will use this Hotel again whenever we need lodging in the Energy Corridor area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Our stay combined business and family.  We also had two disabled family members traveling with us.  The Hotel was very good, satisfying all of our needs.  We had a two bedroom suite on the second floor, near the back elevator.  The rooms were clean and very functional.  The free breakfast was good.  We did not take advantage of the free evening meal.  This is served from 5:30 pm to 7:00 pm and we just did could not make it back in time.  It would be good to extend it an hour or so. For the price of a regular Hotel room (about $200) you get a two bedroom suite.  The only services you do not get are room service and help with the luggage.  The quality of the bedding, the furnishings and of course the amount of room you get is as good and better than in a full service Hotel.  We will use this Hotel again whenever we need lodging in the Energy Corridor area of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r102989684-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102989684</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>What you'd expect.....</t>
+  </si>
+  <si>
+    <t>From a Homewood Suite......It's easy to access (right off the 10) and getting to the frontage roads to find some place to eat was also easy.....It's nothing special, but meets the expectations of a Homewood Suites.....</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r90339749-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>90339749</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>Why Stay Any Other Place!</t>
+  </si>
+  <si>
+    <t>Hilton has out done their selves with this hotel. Homewood Suites has all the comforts of home and more. For under $100 you basically get a one bedroom apartment with the luxuries of a primo hotel. Separate bedroom with ceiling fan and the most comfortable beds in any hotel. Full kitchen complete with dishes, pans, silverware and coffee. Two flat screen tvs, granite counter tops in the bath and kitchen. Full breakfast in the morning and hot snacks in the evening. The great thing about this hotel is that my husband, early riser, can close the bedroom door and watch the early morning news and sip his coffee in the living area without disturbing me. In other hotels he has to go down to the lobby. Where are they finding their employees for this hotel?  They are always smiling and courteous no matter what time of day you see them.  Fantastic customer service!My husband and I love this hotel and will plan to stay here on each trip we make to the Houston, TX area.  We always look for a Homewood Suites when we travel and have stayed in quite a few in different cities.  They are all first class.Why would we stay anywhere else?CB in TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>Hilton has out done their selves with this hotel. Homewood Suites has all the comforts of home and more. For under $100 you basically get a one bedroom apartment with the luxuries of a primo hotel. Separate bedroom with ceiling fan and the most comfortable beds in any hotel. Full kitchen complete with dishes, pans, silverware and coffee. Two flat screen tvs, granite counter tops in the bath and kitchen. Full breakfast in the morning and hot snacks in the evening. The great thing about this hotel is that my husband, early riser, can close the bedroom door and watch the early morning news and sip his coffee in the living area without disturbing me. In other hotels he has to go down to the lobby. Where are they finding their employees for this hotel?  They are always smiling and courteous no matter what time of day you see them.  Fantastic customer service!My husband and I love this hotel and will plan to stay here on each trip we make to the Houston, TX area.  We always look for a Homewood Suites when we travel and have stayed in quite a few in different cities.  They are all first class.Why would we stay anywhere else?CB in TexasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d657890-r59959825-Homewood_Suites_by_Hilton_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59959825</t>
+  </si>
+  <si>
+    <t>03/30/2010</t>
+  </si>
+  <si>
+    <t>Felt like home away from home</t>
+  </si>
+  <si>
+    <t>I love this place.  It's ultra clean, very comfortable, and in no way "up itself" (an Australian term I'm not sure I should translate).  When I'm there, I don't feel like I'm some grande visitor to be fawned upon, I feel like a welcome guest with privileges.  The rooms are spacious, well connected, incredibly clean and very, very comfortable.  The internet wireless is high speed, low latency and reliable for calling home on Skype with video, and it's free.Breakfast and dinner are provided at no charge during the week, and breakfast all weekend.  It's not high dining, but it's family style with healthy options.Only 20 minutes to down town on the free-way, and a suburban Walmart 10 minutes up SH6.It will be my pleasure to return and stay again.  It's not as good as home, but it's nicer than some of the high service/sterile other places I stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I love this place.  It's ultra clean, very comfortable, and in no way "up itself" (an Australian term I'm not sure I should translate).  When I'm there, I don't feel like I'm some grande visitor to be fawned upon, I feel like a welcome guest with privileges.  The rooms are spacious, well connected, incredibly clean and very, very comfortable.  The internet wireless is high speed, low latency and reliable for calling home on Skype with video, and it's free.Breakfast and dinner are provided at no charge during the week, and breakfast all weekend.  It's not high dining, but it's family style with healthy options.Only 20 minutes to down town on the free-way, and a suburban Walmart 10 minutes up SH6.It will be my pleasure to return and stay again.  It's not as good as home, but it's nicer than some of the high service/sterile other places I stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2678,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2710,7581 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>297</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>285</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s">
+        <v>307</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>309</v>
+      </c>
+      <c r="J40" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
+      </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>313</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>318</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>336</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s">
+        <v>346</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>354</v>
+      </c>
+      <c r="J48" t="s">
+        <v>355</v>
+      </c>
+      <c r="K48" t="s">
+        <v>356</v>
+      </c>
+      <c r="L48" t="s">
+        <v>357</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>358</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>358</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>370</v>
+      </c>
+      <c r="J51" t="s">
+        <v>371</v>
+      </c>
+      <c r="K51" t="s">
+        <v>372</v>
+      </c>
+      <c r="L51" t="s">
+        <v>373</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>358</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>375</v>
+      </c>
+      <c r="J52" t="s">
+        <v>376</v>
+      </c>
+      <c r="K52" t="s">
+        <v>377</v>
+      </c>
+      <c r="L52" t="s">
+        <v>378</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>379</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>380</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>381</v>
+      </c>
+      <c r="J53" t="s">
+        <v>382</v>
+      </c>
+      <c r="K53" t="s">
+        <v>383</v>
+      </c>
+      <c r="L53" t="s">
+        <v>384</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>385</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>386</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>387</v>
+      </c>
+      <c r="J54" t="s">
+        <v>388</v>
+      </c>
+      <c r="K54" t="s">
+        <v>389</v>
+      </c>
+      <c r="L54" t="s">
+        <v>390</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>392</v>
+      </c>
+      <c r="J55" t="s">
+        <v>393</v>
+      </c>
+      <c r="K55" t="s">
+        <v>394</v>
+      </c>
+      <c r="L55" t="s">
+        <v>395</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>396</v>
+      </c>
+      <c r="O55" t="s">
+        <v>397</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>400</v>
+      </c>
+      <c r="J56" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" t="s">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s">
+        <v>403</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>404</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s">
+        <v>409</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>404</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>410</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>411</v>
+      </c>
+      <c r="J58" t="s">
+        <v>412</v>
+      </c>
+      <c r="K58" t="s">
+        <v>413</v>
+      </c>
+      <c r="L58" t="s">
+        <v>414</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>415</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>416</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>417</v>
+      </c>
+      <c r="J59" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" t="s">
+        <v>419</v>
+      </c>
+      <c r="L59" t="s">
+        <v>420</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>415</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>421</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>422</v>
+      </c>
+      <c r="J60" t="s">
+        <v>423</v>
+      </c>
+      <c r="K60" t="s">
+        <v>424</v>
+      </c>
+      <c r="L60" t="s">
+        <v>425</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>426</v>
+      </c>
+      <c r="O60" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>428</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>429</v>
+      </c>
+      <c r="J61" t="s">
+        <v>430</v>
+      </c>
+      <c r="K61" t="s">
+        <v>431</v>
+      </c>
+      <c r="L61" t="s">
+        <v>432</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>426</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>438</v>
+      </c>
+      <c r="O62" t="s">
+        <v>119</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63" t="s">
+        <v>441</v>
+      </c>
+      <c r="K63" t="s">
+        <v>211</v>
+      </c>
+      <c r="L63" t="s">
+        <v>442</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>444</v>
+      </c>
+      <c r="J64" t="s">
+        <v>445</v>
+      </c>
+      <c r="K64" t="s">
+        <v>446</v>
+      </c>
+      <c r="L64" t="s">
+        <v>447</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>448</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>449</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>450</v>
+      </c>
+      <c r="J65" t="s">
+        <v>451</v>
+      </c>
+      <c r="K65" t="s">
+        <v>452</v>
+      </c>
+      <c r="L65" t="s">
+        <v>453</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>454</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" t="s">
+        <v>458</v>
+      </c>
+      <c r="K66" t="s">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s">
+        <v>460</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>454</v>
+      </c>
+      <c r="O66" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>462</v>
+      </c>
+      <c r="J67" t="s">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s">
+        <v>465</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>466</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>467</v>
+      </c>
+      <c r="J68" t="s">
+        <v>468</v>
+      </c>
+      <c r="K68" t="s">
+        <v>469</v>
+      </c>
+      <c r="L68" t="s">
+        <v>470</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>448</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>471</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>472</v>
+      </c>
+      <c r="J69" t="s">
+        <v>473</v>
+      </c>
+      <c r="K69" t="s">
+        <v>474</v>
+      </c>
+      <c r="L69" t="s">
+        <v>475</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>448</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>476</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>477</v>
+      </c>
+      <c r="J70" t="s">
+        <v>478</v>
+      </c>
+      <c r="K70" t="s">
+        <v>479</v>
+      </c>
+      <c r="L70" t="s">
+        <v>480</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>481</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>482</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>483</v>
+      </c>
+      <c r="J71" t="s">
+        <v>484</v>
+      </c>
+      <c r="K71" t="s">
+        <v>485</v>
+      </c>
+      <c r="L71" t="s">
+        <v>486</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>487</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>489</v>
+      </c>
+      <c r="J72" t="s">
+        <v>490</v>
+      </c>
+      <c r="K72" t="s">
+        <v>491</v>
+      </c>
+      <c r="L72" t="s">
+        <v>492</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>493</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>494</v>
+      </c>
+      <c r="J73" t="s">
+        <v>495</v>
+      </c>
+      <c r="K73" t="s">
+        <v>496</v>
+      </c>
+      <c r="L73" t="s">
+        <v>497</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>487</v>
+      </c>
+      <c r="O73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>499</v>
+      </c>
+      <c r="J74" t="s">
+        <v>500</v>
+      </c>
+      <c r="K74" t="s">
+        <v>501</v>
+      </c>
+      <c r="L74" t="s">
+        <v>502</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>503</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>504</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>505</v>
+      </c>
+      <c r="J75" t="s">
+        <v>506</v>
+      </c>
+      <c r="K75" t="s">
+        <v>507</v>
+      </c>
+      <c r="L75" t="s">
+        <v>508</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>503</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>509</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>510</v>
+      </c>
+      <c r="J76" t="s">
+        <v>511</v>
+      </c>
+      <c r="K76" t="s">
+        <v>512</v>
+      </c>
+      <c r="L76" t="s">
+        <v>513</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>503</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>514</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>515</v>
+      </c>
+      <c r="J77" t="s">
+        <v>516</v>
+      </c>
+      <c r="K77" t="s">
+        <v>517</v>
+      </c>
+      <c r="L77" t="s">
+        <v>518</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>519</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>520</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>521</v>
+      </c>
+      <c r="J78" t="s">
+        <v>522</v>
+      </c>
+      <c r="K78" t="s">
+        <v>523</v>
+      </c>
+      <c r="L78" t="s">
+        <v>524</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>519</v>
+      </c>
+      <c r="O78" t="s">
+        <v>72</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>525</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>526</v>
+      </c>
+      <c r="J79" t="s">
+        <v>527</v>
+      </c>
+      <c r="K79" t="s">
+        <v>528</v>
+      </c>
+      <c r="L79" t="s">
+        <v>529</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>530</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>531</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>532</v>
+      </c>
+      <c r="J80" t="s">
+        <v>533</v>
+      </c>
+      <c r="K80" t="s">
+        <v>534</v>
+      </c>
+      <c r="L80" t="s">
+        <v>535</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>536</v>
+      </c>
+      <c r="O80" t="s">
+        <v>72</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>538</v>
+      </c>
+      <c r="J81" t="s">
+        <v>539</v>
+      </c>
+      <c r="K81" t="s">
+        <v>540</v>
+      </c>
+      <c r="L81" t="s">
+        <v>541</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>536</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>542</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>543</v>
+      </c>
+      <c r="J82" t="s">
+        <v>544</v>
+      </c>
+      <c r="K82" t="s">
+        <v>545</v>
+      </c>
+      <c r="L82" t="s">
+        <v>546</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>530</v>
+      </c>
+      <c r="O82" t="s">
+        <v>119</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>548</v>
+      </c>
+      <c r="J83" t="s">
+        <v>549</v>
+      </c>
+      <c r="K83" t="s">
+        <v>550</v>
+      </c>
+      <c r="L83" t="s">
+        <v>551</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>552</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>553</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>554</v>
+      </c>
+      <c r="J84" t="s">
+        <v>555</v>
+      </c>
+      <c r="K84" t="s">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s">
+        <v>557</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>552</v>
+      </c>
+      <c r="O84" t="s">
+        <v>72</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>558</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>559</v>
+      </c>
+      <c r="J85" t="s">
+        <v>560</v>
+      </c>
+      <c r="K85" t="s">
+        <v>561</v>
+      </c>
+      <c r="L85" t="s">
+        <v>562</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>552</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>563</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>564</v>
+      </c>
+      <c r="J86" t="s">
+        <v>565</v>
+      </c>
+      <c r="K86" t="s">
+        <v>566</v>
+      </c>
+      <c r="L86" t="s">
+        <v>567</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>552</v>
+      </c>
+      <c r="O86" t="s">
+        <v>119</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>568</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>569</v>
+      </c>
+      <c r="J87" t="s">
+        <v>570</v>
+      </c>
+      <c r="K87" t="s">
+        <v>571</v>
+      </c>
+      <c r="L87" t="s">
+        <v>572</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>573</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>574</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>575</v>
+      </c>
+      <c r="J88" t="s">
+        <v>576</v>
+      </c>
+      <c r="K88" t="s">
+        <v>577</v>
+      </c>
+      <c r="L88" t="s">
+        <v>578</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>573</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>579</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>580</v>
+      </c>
+      <c r="J89" t="s">
+        <v>581</v>
+      </c>
+      <c r="K89" t="s">
+        <v>582</v>
+      </c>
+      <c r="L89" t="s">
+        <v>583</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>584</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>585</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>586</v>
+      </c>
+      <c r="J90" t="s">
+        <v>587</v>
+      </c>
+      <c r="K90" t="s">
+        <v>588</v>
+      </c>
+      <c r="L90" t="s">
+        <v>589</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>584</v>
+      </c>
+      <c r="O90" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>591</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>592</v>
+      </c>
+      <c r="J91" t="s">
+        <v>593</v>
+      </c>
+      <c r="K91" t="s">
+        <v>594</v>
+      </c>
+      <c r="L91" t="s">
+        <v>595</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>596</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>597</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>598</v>
+      </c>
+      <c r="J92" t="s">
+        <v>599</v>
+      </c>
+      <c r="K92" t="s">
+        <v>600</v>
+      </c>
+      <c r="L92" t="s">
+        <v>601</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>602</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>603</v>
+      </c>
+      <c r="J93" t="s">
+        <v>604</v>
+      </c>
+      <c r="K93" t="s">
+        <v>605</v>
+      </c>
+      <c r="L93" t="s">
+        <v>606</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>596</v>
+      </c>
+      <c r="O93" t="s">
+        <v>72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>608</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>609</v>
+      </c>
+      <c r="J94" t="s">
+        <v>610</v>
+      </c>
+      <c r="K94" t="s">
+        <v>611</v>
+      </c>
+      <c r="L94" t="s">
+        <v>612</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>614</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>615</v>
+      </c>
+      <c r="J95" t="s">
+        <v>616</v>
+      </c>
+      <c r="K95" t="s">
+        <v>617</v>
+      </c>
+      <c r="L95" t="s">
+        <v>618</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>619</v>
+      </c>
+      <c r="O95" t="s">
+        <v>397</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>621</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>622</v>
+      </c>
+      <c r="J96" t="s">
+        <v>623</v>
+      </c>
+      <c r="K96" t="s">
+        <v>624</v>
+      </c>
+      <c r="L96" t="s">
+        <v>625</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>626</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>627</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>628</v>
+      </c>
+      <c r="J97" t="s">
+        <v>629</v>
+      </c>
+      <c r="K97" t="s">
+        <v>630</v>
+      </c>
+      <c r="L97" t="s">
+        <v>631</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>632</v>
+      </c>
+      <c r="O97" t="s">
+        <v>72</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>633</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>634</v>
+      </c>
+      <c r="J98" t="s">
+        <v>635</v>
+      </c>
+      <c r="K98" t="s">
+        <v>636</v>
+      </c>
+      <c r="L98" t="s">
+        <v>637</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>638</v>
+      </c>
+      <c r="O98" t="s">
+        <v>72</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>639</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>640</v>
+      </c>
+      <c r="J99" t="s">
+        <v>641</v>
+      </c>
+      <c r="K99" t="s">
+        <v>642</v>
+      </c>
+      <c r="L99" t="s">
+        <v>643</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>638</v>
+      </c>
+      <c r="O99" t="s">
+        <v>72</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>644</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>645</v>
+      </c>
+      <c r="J100" t="s">
+        <v>646</v>
+      </c>
+      <c r="K100" t="s">
+        <v>647</v>
+      </c>
+      <c r="L100" t="s">
+        <v>648</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>638</v>
+      </c>
+      <c r="O100" t="s">
+        <v>72</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>649</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>650</v>
+      </c>
+      <c r="J101" t="s">
+        <v>651</v>
+      </c>
+      <c r="K101" t="s">
+        <v>652</v>
+      </c>
+      <c r="L101" t="s">
+        <v>653</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>654</v>
+      </c>
+      <c r="O101" t="s">
+        <v>72</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>655</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>656</v>
+      </c>
+      <c r="J102" t="s">
+        <v>657</v>
+      </c>
+      <c r="K102" t="s">
+        <v>658</v>
+      </c>
+      <c r="L102" t="s">
+        <v>659</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>654</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>660</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>661</v>
+      </c>
+      <c r="J103" t="s">
+        <v>662</v>
+      </c>
+      <c r="K103" t="s">
+        <v>663</v>
+      </c>
+      <c r="L103" t="s">
+        <v>664</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>654</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>665</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>666</v>
+      </c>
+      <c r="J104" t="s">
+        <v>667</v>
+      </c>
+      <c r="K104" t="s">
+        <v>668</v>
+      </c>
+      <c r="L104" t="s">
+        <v>669</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>619</v>
+      </c>
+      <c r="O104" t="s">
+        <v>72</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>670</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>671</v>
+      </c>
+      <c r="J105" t="s">
+        <v>672</v>
+      </c>
+      <c r="K105" t="s">
+        <v>658</v>
+      </c>
+      <c r="L105" t="s">
+        <v>673</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>674</v>
+      </c>
+      <c r="O105" t="s">
+        <v>119</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>676</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>677</v>
+      </c>
+      <c r="J106" t="s">
+        <v>678</v>
+      </c>
+      <c r="K106" t="s">
+        <v>679</v>
+      </c>
+      <c r="L106" t="s">
+        <v>680</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>619</v>
+      </c>
+      <c r="O106" t="s">
+        <v>72</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>681</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>682</v>
+      </c>
+      <c r="J107" t="s">
+        <v>683</v>
+      </c>
+      <c r="K107" t="s">
+        <v>684</v>
+      </c>
+      <c r="L107" t="s">
+        <v>685</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>687</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>688</v>
+      </c>
+      <c r="J108" t="s">
+        <v>689</v>
+      </c>
+      <c r="K108" t="s">
+        <v>690</v>
+      </c>
+      <c r="L108" t="s">
+        <v>691</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>692</v>
+      </c>
+      <c r="O108" t="s">
+        <v>72</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>694</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>695</v>
+      </c>
+      <c r="J109" t="s">
+        <v>696</v>
+      </c>
+      <c r="K109" t="s">
+        <v>697</v>
+      </c>
+      <c r="L109" t="s">
+        <v>698</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>699</v>
+      </c>
+      <c r="O109" t="s">
+        <v>72</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>701</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>702</v>
+      </c>
+      <c r="J110" t="s">
+        <v>703</v>
+      </c>
+      <c r="K110" t="s">
+        <v>704</v>
+      </c>
+      <c r="L110" t="s">
+        <v>705</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>706</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>707</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>708</v>
+      </c>
+      <c r="J111" t="s">
+        <v>709</v>
+      </c>
+      <c r="K111" t="s">
+        <v>710</v>
+      </c>
+      <c r="L111" t="s">
+        <v>711</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>712</v>
+      </c>
+      <c r="O111" t="s">
+        <v>72</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>714</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>715</v>
+      </c>
+      <c r="J112" t="s">
+        <v>716</v>
+      </c>
+      <c r="K112" t="s">
+        <v>717</v>
+      </c>
+      <c r="L112" t="s">
+        <v>718</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>719</v>
+      </c>
+      <c r="O112" t="s">
+        <v>72</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>721</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>722</v>
+      </c>
+      <c r="J113" t="s">
+        <v>723</v>
+      </c>
+      <c r="K113" t="s">
+        <v>724</v>
+      </c>
+      <c r="L113" t="s">
+        <v>725</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>726</v>
+      </c>
+      <c r="O113" t="s">
+        <v>72</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>727</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>728</v>
+      </c>
+      <c r="J114" t="s">
+        <v>729</v>
+      </c>
+      <c r="K114" t="s">
+        <v>730</v>
+      </c>
+      <c r="L114" t="s">
+        <v>731</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>732</v>
+      </c>
+      <c r="O114" t="s">
+        <v>119</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>56262</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>734</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>735</v>
+      </c>
+      <c r="J115" t="s">
+        <v>736</v>
+      </c>
+      <c r="K115" t="s">
+        <v>737</v>
+      </c>
+      <c r="L115" t="s">
+        <v>738</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>739</v>
+      </c>
+      <c r="O115" t="s">
+        <v>72</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
